--- a/src/test/resources/testdata/AirDoctorTestData.xlsx
+++ b/src/test/resources/testdata/AirDoctorTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AirDoctorAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="3933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="3934">
   <si>
     <t>ModelName</t>
   </si>
@@ -11847,13 +11847,17 @@
   </si>
   <si>
     <t>$0.00</t>
+  </si>
+  <si>
+    <t>288426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12401,21 +12405,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="14.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.08984375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.81640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7265625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.54296875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="11.1796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.90625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.7265625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.453125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.36328125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="12.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="48.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -13884,8 +13888,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.6328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="12" width="44.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -16379,11 +16383,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="14" width="8.7265625" style="8" collapsed="1"/>
-    <col min="15" max="15" width="10.1796875" style="8" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7265625" style="8" customWidth="1" collapsed="1"/>
-    <col min="17" max="21" width="8.7265625" style="8" collapsed="1"/>
-    <col min="23" max="16384" width="8.7265625" style="8" collapsed="1"/>
+    <col min="1" max="14" style="8" width="8.7265625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="10.1796875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="8" width="15.7265625" collapsed="true"/>
+    <col min="17" max="21" style="8" width="8.7265625" collapsed="true"/>
+    <col min="23" max="16384" style="8" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="64.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -18410,9 +18414,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="20" max="20" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.36328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="48.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -18568,6 +18572,33 @@
       </c>
       <c r="V2" s="20" t="s">
         <v>3925</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3844</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3924</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3925</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3844</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3924</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3925</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3933</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -20324,7 +20355,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="12.1796875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" customWidth="true" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="48.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -22209,7 +22240,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -32716,9 +32747,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.36328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -53685,7 +53716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -55631,7 +55662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata/AirDoctorTestData.xlsx
+++ b/src/test/resources/testdata/AirDoctorTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AirDoctorAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210A4EB9-3D8F-4D0A-A701-D90B309350DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FEE16-1FF8-40D1-99E7-521ADF8E3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{77652726-F358-41C9-8ABC-F2A00153F210}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{77652726-F358-41C9-8ABC-F2A00153F210}"/>
   </bookViews>
   <sheets>
     <sheet name="register1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="3934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="3947">
   <si>
     <t>ModelName</t>
   </si>
@@ -11849,7 +11849,46 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>288426</t>
+    <t>$958.00</t>
+  </si>
+  <si>
+    <t>$82.38</t>
+  </si>
+  <si>
+    <t>$1,060.62</t>
+  </si>
+  <si>
+    <t>288454</t>
+  </si>
+  <si>
+    <t>288455</t>
+  </si>
+  <si>
+    <t>288456</t>
+  </si>
+  <si>
+    <t>288457</t>
+  </si>
+  <si>
+    <t>288458</t>
+  </si>
+  <si>
+    <t>288459</t>
+  </si>
+  <si>
+    <t>$57.27</t>
+  </si>
+  <si>
+    <t>$686.27</t>
+  </si>
+  <si>
+    <t>288460</t>
+  </si>
+  <si>
+    <t>288461</t>
+  </si>
+  <si>
+    <t>288462</t>
   </si>
 </sst>
 </file>
@@ -18408,12 +18447,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACC5E2F-7090-4394-8931-1302CBAFA5A5}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:V2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="16" max="16" customWidth="true" width="11.6328125" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="12.1796875" collapsed="true"/>
     <col min="21" max="21" customWidth="true" width="11.36328125" collapsed="true"/>
     <col min="22" max="22" customWidth="true" width="12.0" collapsed="true"/>
@@ -18521,8 +18561,12 @@
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
@@ -18550,7 +18594,7 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8" t="s">
-        <v>3857</v>
+        <v>3844</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>56</v>
@@ -18562,7 +18606,7 @@
         <v>3857</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>3844</v>
+        <v>3857</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>56</v>
@@ -18574,31 +18618,31 @@
         <v>3925</v>
       </c>
       <c r="W2" t="s">
-        <v>3844</v>
+        <v>3933</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
       <c r="Z2" t="s">
-        <v>3925</v>
+        <v>3935</v>
       </c>
       <c r="AA2" t="s">
-        <v>3844</v>
+        <v>3933</v>
       </c>
       <c r="AB2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
       <c r="AD2" t="s">
-        <v>3925</v>
+        <v>3935</v>
       </c>
       <c r="AE2" t="s">
-        <v>3933</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -18662,6 +18706,33 @@
       <c r="V3" s="20" t="s">
         <v>3879</v>
       </c>
+      <c r="W3" t="s">
+        <v>3877</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3879</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3877</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>3879</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>3937</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -18722,6 +18793,33 @@
       <c r="V4" s="20" t="s">
         <v>3883</v>
       </c>
+      <c r="W4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3883</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3883</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3938</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -18848,6 +18946,33 @@
       <c r="V6" s="20" t="s">
         <v>3917</v>
       </c>
+      <c r="W6" t="s">
+        <v>3914</v>
+      </c>
+      <c r="X6" t="s">
+        <v>3915</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3916</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>3917</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>3914</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3915</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3916</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>3917</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3939</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -18908,6 +19033,33 @@
       <c r="V7" s="20" t="s">
         <v>3857</v>
       </c>
+      <c r="W7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3932</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3932</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3940</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -19032,6 +19184,33 @@
       <c r="V9" s="20" t="s">
         <v>3931</v>
       </c>
+      <c r="W9" t="s">
+        <v>3928</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3929</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>3930</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>3931</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3928</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3929</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>3930</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>3931</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3941</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -19092,6 +19271,33 @@
       <c r="V10" s="20" t="s">
         <v>3856</v>
       </c>
+      <c r="W10" t="s">
+        <v>3844</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3942</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>3943</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>3844</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>3942</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3943</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3944</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -19154,6 +19360,33 @@
       <c r="V11" s="20" t="s">
         <v>3859</v>
       </c>
+      <c r="W11" t="s">
+        <v>3857</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3858</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3859</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>3857</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>3858</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>3859</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3945</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -19273,6 +19506,33 @@
       </c>
       <c r="V13" s="20" t="s">
         <v>3864</v>
+      </c>
+      <c r="W13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" t="s">
+        <v>3862</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3863</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>3864</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>3862</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>3863</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>3864</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3946</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -20349,8 +20609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E743DCCB-8851-4448-86BD-1864591FC2E6}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="C1" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
